--- a/template-auto-transfer.xlsx
+++ b/template-auto-transfer.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkc/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2649F39-7475-C848-BAB1-CC44E556DA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C10AF37-4455-2644-8107-82A1128A0F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{FEA34404-D38F-D847-859F-BB73B3E63870}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BankAccount" sheetId="1" r:id="rId1"/>
+    <sheet name="Bank" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,48 +36,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>bankAccount</t>
-  </si>
-  <si>
-    <t>bankCode</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>accountName</t>
-  </si>
-  <si>
     <t>01466240001</t>
   </si>
   <si>
-    <t>bankId</t>
-  </si>
-  <si>
     <t>tpb</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>Tên tài khoản</t>
+  </si>
+  <si>
+    <t>Số tài khoản/ Số thẻ</t>
+  </si>
+  <si>
+    <t>Tên ngân hàng</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>BIDV_NH TMCP Dau tu và Phat trien VN</t>
+  </si>
+  <si>
+    <t>Agribank_NH Nong nghiep và Phat trien nong thon Việt Nam</t>
+  </si>
+  <si>
+    <t>MB_NH TMCP Quan Doi</t>
+  </si>
+  <si>
+    <t>ACB_NH TMCP A Chau</t>
+  </si>
+  <si>
+    <t>BAB_ NH TMCP Bac A</t>
+  </si>
+  <si>
+    <t>PVcomBank_NH TMCP Dai Chung Viet Nam</t>
+  </si>
+  <si>
+    <t>OceanBank_NH TM TNHH MTV Dai Duong</t>
+  </si>
+  <si>
+    <t>NCB_NH TMCP Quoc Dan</t>
+  </si>
+  <si>
+    <t>VRB_NH Lien doanh Viet Nga</t>
+  </si>
+  <si>
+    <t>SHBVN_Ngan hang TNHH MTV ShinHan Viet Nam</t>
+  </si>
+  <si>
+    <t>MSB_NH TMCP Hang Hai</t>
+  </si>
+  <si>
+    <t>VietABank_NH TMCP Viet A</t>
+  </si>
+  <si>
+    <t>NAMABANK_ NH TMCP Nam A</t>
+  </si>
+  <si>
+    <t>SCB_NH TMCP Sai Gon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGBank_NH TMCP Xang Dau Petrolimex </t>
+  </si>
+  <si>
+    <t>VPB_NH TMCP Viet Nam Thinh Vuong</t>
+  </si>
+  <si>
+    <t>VietBank_NH TMCP Viet Nam Thuong Tin</t>
+  </si>
+  <si>
+    <t>SEABANK_NH TMCP Dong Nam A</t>
+  </si>
+  <si>
+    <t>VIB_NH TMCP Quoc te Viet Nam</t>
+  </si>
+  <si>
+    <t>SHB_NH TMCP Sai Gon Ha Noi</t>
+  </si>
+  <si>
+    <t>CBB_NH TM TNHH MTV XAY DUNG VIET NAM</t>
+  </si>
+  <si>
+    <t>COOPBANK_Ngan hang Hop tac xa Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCB_NH TMCP Phuong Dong </t>
+  </si>
+  <si>
+    <t>VietCapitalBank_NH TMCP Ban Viet</t>
+  </si>
+  <si>
+    <t>Wooribank_NH TNHH MTV Woori Viet Nam</t>
+  </si>
+  <si>
+    <t>BHN_Ngan hang Kookmin Bank chi nhanh Ha Noi</t>
+  </si>
+  <si>
+    <t>UBANK by VPBANK_NH TMCP Viet Nam Thinh Vuong</t>
+  </si>
+  <si>
+    <t>CAKE by VPBANK_NH TMCP Viet Nam Thinh Vuong</t>
+  </si>
+  <si>
+    <t>KBHCM_Ngan hang Kookmin Bank chi nhanh Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>CIMB_NH TNHH MTV CIMB</t>
+  </si>
+  <si>
+    <t>Vietinbank TMCP Cong Thuong</t>
+  </si>
+  <si>
+    <t>Vietcombank_NH TMCP Ngoai thuong VN (VCB)</t>
+  </si>
+  <si>
+    <t>ABB_NH TMCP An Binh (ABBank)</t>
+  </si>
+  <si>
+    <t>NHBHN_NONGHYUP - Chi nhanh HN</t>
+  </si>
+  <si>
+    <t>Saigonbank_NH TMCP Sai Gon Cong Thuong (SGB)</t>
+  </si>
+  <si>
+    <t>SacomBank_NH TMCP Sai gon Thuong Tin (STB)</t>
+  </si>
+  <si>
+    <t>DONGABANK_NH TMCP Dong A (DAB)</t>
+  </si>
+  <si>
+    <t>Techcombank_NH TMCP Ky thuong Viet Nam (TCB)</t>
+  </si>
+  <si>
+    <t>GPBank_NHTM TNHH MTV Dau Khi Toan Cau (GPB)</t>
+  </si>
+  <si>
+    <t>SCVN_NH TNHH MTV STANDARD CHARTERED BANK LIMITED (Viet Nam)</t>
+  </si>
+  <si>
+    <t>TPBank_NH TMCP Tien Phong (TPB)</t>
+  </si>
+  <si>
+    <t>Eximbank_NH TMCP Xuat nhap khau VN (EIB)</t>
+  </si>
+  <si>
+    <t>INDOVINABANK_NH TNHH Indovina (IVB)</t>
+  </si>
+  <si>
+    <t>HDBank_NH TMCP Phat Trien TP Ho Chi Minh (HDB)</t>
+  </si>
+  <si>
+    <t>BaoVietBank_NH TMCP Bao Viet (BVB)</t>
+  </si>
+  <si>
+    <t>PBVN_NH TNHH MTV Public Viet Nam (VIDPublic Bank)</t>
+  </si>
+  <si>
+    <t>HONGLEONGBANK_NH TNHH MTV Hong Leong Viet Nam (HLBVN)</t>
+  </si>
+  <si>
+    <t>LPB_NH TMCP Buu Dien Lien Viet (LienVietPostBank)</t>
+  </si>
+  <si>
+    <t>Kienlongbank_NH TMCP Kien Long (KLB)</t>
+  </si>
+  <si>
+    <t>IBK_Industrial Bank of Korea - CN Ha Noi</t>
+  </si>
+  <si>
+    <t>IBK_Industrial Bank of Korea - CN Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>UOB_NH TNHH MTV United Overseas(VietNam)</t>
+  </si>
+  <si>
+    <t>DBS_Ngan hang DBS - chi nhanh Thanh pho Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>KBank_NH Dai chung TNHH Kasikornbank - CN TP HCM</t>
+  </si>
+  <si>
+    <t>HSBC_NH TNHH MTV HSBC (Viet Nam)</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>Mã Ngân hàng</t>
+  </si>
+  <si>
+    <t>Mã ngân hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -91,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,13 +278,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +325,131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6070599" cy="3097386"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F799BEC5-B8C8-D049-8257-507022830EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10604501" y="977900"/>
+          <a:ext cx="6070599" cy="3097386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ghi chú: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Các cột bắt buộc điền: Số tài khoản/ Số thẻ, Id ngân hàng hoặc tên ngân hàng, Số tiền</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Id ngân hàng có thể lấy ở sheet Bank</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,59 +749,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D174A-51D5-5E46-A223-FA5AF8887247}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24" style="3" customWidth="1"/>
+    <col min="2" max="3" width="21.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="BK5oVCHGZ+rcXkU9h6vIHFjdFjUknqKgl9NH1+/pNq55TpyIpMUKpE8T8cbPSfyiQM3gMUQCz0NzkS8nJC8iYg==" saltValue="IelWeRG5ZksNQLJKwXbzWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5007BB-6567-7D46-AD50-9177C1339600}">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>970436</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>970418</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>970405</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>970422</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>970416</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>970425</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>801011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>970400</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>970403</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>970406</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>970407</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>970408</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>970409</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>970410</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>970412</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>970414</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>970419</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>970421</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>970423</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>970424</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>970426</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>970427</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>970428</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>970429</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>970430</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>970431</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>970432</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>970433</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>970434</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>970437</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>970438</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>970439</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>970440</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>970441</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>970442</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>970443</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>970444</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>970446</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>970448</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>970449</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>970452</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>970454</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>970455</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>970456</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>970457</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>970458</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>970462</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>796500</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>668888</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>546035</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>546034</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>970463</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>422589</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>458761</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>970415</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/template-auto-transfer.xlsx
+++ b/template-auto-transfer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkc/Devjoy/githubclone/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C10AF37-4455-2644-8107-82A1128A0F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AB486B-76FB-ED4A-B204-82D0FFC2601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{FEA34404-D38F-D847-859F-BB73B3E63870}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>01466240001</t>
-  </si>
-  <si>
-    <t>tpb</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Tên tài khoản</t>
   </si>
@@ -225,9 +216,6 @@
   </si>
   <si>
     <t>HSBC_NH TNHH MTV HSBC (Viet Nam)</t>
-  </si>
-  <si>
-    <t>sda</t>
   </si>
   <si>
     <t>Mã Ngân hàng</t>
@@ -749,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D174A-51D5-5E46-A223-FA5AF8887247}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,39 +755,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -825,10 +796,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +807,7 @@
         <v>970436</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -844,7 +815,7 @@
         <v>970418</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -852,7 +823,7 @@
         <v>970405</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -860,7 +831,7 @@
         <v>970422</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -868,7 +839,7 @@
         <v>970416</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -876,7 +847,7 @@
         <v>970425</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -884,7 +855,7 @@
         <v>801011</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -892,7 +863,7 @@
         <v>970400</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,7 +871,7 @@
         <v>970403</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +879,7 @@
         <v>970406</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +887,7 @@
         <v>970407</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -924,7 +895,7 @@
         <v>970408</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -932,7 +903,7 @@
         <v>970409</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -940,7 +911,7 @@
         <v>970410</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -948,7 +919,7 @@
         <v>970412</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +927,7 @@
         <v>970414</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,7 +935,7 @@
         <v>970419</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,7 +943,7 @@
         <v>970421</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -980,7 +951,7 @@
         <v>970423</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -988,7 +959,7 @@
         <v>970424</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +967,7 @@
         <v>970426</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +975,7 @@
         <v>970427</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +983,7 @@
         <v>970428</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +991,7 @@
         <v>970429</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +999,7 @@
         <v>970430</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1007,7 @@
         <v>970431</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1015,7 @@
         <v>970432</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1023,7 @@
         <v>970433</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1031,7 @@
         <v>970434</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1039,7 @@
         <v>970437</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1047,7 @@
         <v>970438</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,7 +1055,7 @@
         <v>970439</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1092,7 +1063,7 @@
         <v>970440</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1071,7 @@
         <v>970441</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1079,7 @@
         <v>970442</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1087,7 @@
         <v>970443</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1095,7 @@
         <v>970444</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1103,7 @@
         <v>970446</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,7 +1111,7 @@
         <v>970448</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,7 +1119,7 @@
         <v>970449</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1127,7 @@
         <v>970452</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1135,7 @@
         <v>970454</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1172,7 +1143,7 @@
         <v>970455</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1180,7 +1151,7 @@
         <v>970456</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1159,7 @@
         <v>970457</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1167,7 @@
         <v>970458</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1175,7 @@
         <v>970462</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1183,7 @@
         <v>796500</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1191,7 @@
         <v>668888</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1199,7 @@
         <v>546035</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1207,7 @@
         <v>546034</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1215,7 @@
         <v>970463</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1223,7 @@
         <v>422589</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1260,7 +1231,7 @@
         <v>458761</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1239,7 @@
         <v>970415</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
